--- a/Formulario LOGT.xlsx
+++ b/Formulario LOGT.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gffg\MK-Platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C60B58-F55D-4FD5-856F-AAED4F0C40AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Formulario LOGT</t>
   </si>
@@ -131,37 +140,84 @@
   </si>
   <si>
     <t>39 min</t>
+  </si>
+  <si>
+    <t>9:03AM</t>
+  </si>
+  <si>
+    <t>9:47 AM</t>
+  </si>
+  <si>
+    <t>10 mins en comer</t>
+  </si>
+  <si>
+    <t>34 min</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Correcciones:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>AEIOU Framework
+- Uusuarios internos y usuarios extremos</t>
+    </r>
+  </si>
+  <si>
+    <t>Se implementan las correcciones dadas en la presentación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos narrow"/>
+      <name val="aptos narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="11"/>
+      <name val="aptos narrow"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
@@ -171,7 +227,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -187,27 +243,39 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -217,6 +285,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -231,66 +300,71 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -480,228 +554,252 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="10.63"/>
-    <col customWidth="1" min="4" max="4" width="11.75"/>
-    <col customWidth="1" min="5" max="5" width="19.5"/>
-    <col customWidth="1" min="6" max="6" width="12.0"/>
-    <col customWidth="1" min="7" max="7" width="14.75"/>
-    <col customWidth="1" min="8" max="8" width="21.75"/>
-    <col customWidth="1" min="9" max="26" width="10.63"/>
+    <col min="1" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" customWidth="1"/>
+    <col min="9" max="26" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:8" ht="14.25" customHeight="1"/>
+    <row r="2" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="8">
-        <v>45317.0</v>
-      </c>
-      <c r="C6" s="9" t="s">
+    <row r="6" spans="2:8" ht="77.5">
+      <c r="B6" s="3">
+        <v>45317</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="11">
-        <v>45322.0</v>
-      </c>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="2:8" ht="31">
+      <c r="B7" s="6">
+        <v>45322</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="11">
-        <v>45322.0</v>
-      </c>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="2:8" ht="46.5">
+      <c r="B8" s="6">
+        <v>45322</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="62.25" customHeight="1">
-      <c r="B9" s="11">
-        <v>45322.0</v>
-      </c>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="2:8" ht="62.25" customHeight="1">
+      <c r="B9" s="6">
+        <v>45322</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="11">
-        <v>45322.0</v>
-      </c>
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="2:8" ht="46.5">
+      <c r="B10" s="6">
+        <v>45322</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="11">
-        <v>45322.0</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="2:8" ht="46.5">
+      <c r="B11" s="6">
+        <v>45322</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="12" spans="2:8" ht="108.5">
+      <c r="B12" s="6">
+        <v>45323</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" customHeight="1"/>
+    <row r="14" spans="2:8" ht="14.25" customHeight="1"/>
+    <row r="15" spans="2:8" ht="14.25" customHeight="1"/>
+    <row r="16" spans="2:8" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1691,9 +1789,7 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>